--- a/cfs_3_0.1.xlsx
+++ b/cfs_3_0.1.xlsx
@@ -7389,7 +7389,7 @@
         <v>3</v>
       </c>
       <c r="W91" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="X91" t="n">
         <v>3</v>
@@ -7997,7 +7997,7 @@
         <v>4</v>
       </c>
       <c r="W99" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="X99" t="n">
         <v>3</v>
